--- a/ConceptMap-R5-ObservationDefinition-elements-for-R4-ObservationDefinition.xlsx
+++ b/ConceptMap-R5-ObservationDefinition-elements-for-R4-ObservationDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.0859473-06:00</t>
+    <t>2026-02-17T14:42:27.4332996-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -526,42 +526,6 @@
   </si>
   <si>
     <t>ObservationDefinition.component.qualifiedValue</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.context</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.appliesTo</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.gender</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.age</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.gestationalAge</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.condition</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.rangeCategory</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.range</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.validCodedValueSet</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.normalCodedValueSet</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.abnormalCodedValueSet</t>
-  </si>
-  <si>
-    <t>ObservationDefinition.component.qualifiedValue.criticalCodedValueSet</t>
   </si>
 </sst>
 </file>
@@ -818,7 +782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1623,162 +1587,6 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
